--- a/research/media/self.xlsx
+++ b/research/media/self.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F0D20-8701-A24C-B5CF-1BD256EFDF79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5EA0DA-DA78-B648-AC6A-A8329D07C48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="1" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
+    <workbookView xWindow="7280" yWindow="500" windowWidth="25600" windowHeight="14080" activeTab="2" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
     <sheet name="melatonin" sheetId="3" r:id="rId2"/>
-    <sheet name="dunbar.html" sheetId="2" r:id="rId3"/>
+    <sheet name="sleep_method" sheetId="4" r:id="rId3"/>
+    <sheet name="dunbar.html" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>Wake</t>
   </si>
@@ -135,14 +136,27 @@
   </si>
   <si>
     <t>75:00 lifting</t>
+  </si>
+  <si>
+    <t>Last Food</t>
+  </si>
+  <si>
+    <t>Last Food Before Bed</t>
+  </si>
+  <si>
+    <t>Exer. Intensity</t>
+  </si>
+  <si>
+    <t>Red Light Exp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -173,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +211,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,7 +1856,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2607,9 +2634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84922996-49EC-394C-BB6B-67D397B88DA3}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A32"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2905,6 +2932,382 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC8E605-A7C1-0A40-879F-B8639AF1C7DE}">
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>44327</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.1875</v>
+      </c>
+      <c r="D2" s="11">
+        <f>(24-B2)+C2</f>
+        <v>23.270833333333332</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F2" s="11">
+        <f>B2-E2</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>15</v>
+      </c>
+      <c r="I2" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>44385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF26E21C-BD8D-FB4D-AE37-26E2E0C23703}">
   <dimension ref="A1:P37"/>
   <sheetViews>

--- a/research/media/self.xlsx
+++ b/research/media/self.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5EA0DA-DA78-B648-AC6A-A8329D07C48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403239A1-8C0E-7F45-B17C-ADFA07CDF667}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="500" windowWidth="25600" windowHeight="14080" activeTab="2" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
+    <workbookView xWindow="9180" yWindow="760" windowWidth="25600" windowHeight="14080" activeTab="2" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
   <si>
     <t>Wake</t>
   </si>
@@ -149,14 +149,18 @@
   <si>
     <t>Red Light Exp.</t>
   </si>
+  <si>
+    <t>Diff. Waking</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="h:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -187,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,10 +224,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2933,373 +2939,1093 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC8E605-A7C1-0A40-879F-B8639AF1C7DE}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>44327</v>
       </c>
       <c r="B2" s="11">
-        <v>0.91666666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="C2" s="11">
-        <v>0.1875</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="D2" s="11">
         <f>(24-B2)+C2</f>
-        <v>23.270833333333332</v>
-      </c>
-      <c r="E2" s="11">
+        <v>23.260416666666668</v>
+      </c>
+      <c r="E2" s="17">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F2" s="11">
-        <f>B2-E2</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="11">
+        <f>B2-F2</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>44328</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D60" si="0">(24-B3)+C3</f>
+        <v>23.270833333333332</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G60" si="1">B3-F3</f>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="H3" s="13">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>44329</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>23.229166666666664</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>44330</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>23.416666666666668</v>
+      </c>
+      <c r="E5" s="17">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>44331</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.21875</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>23.28125</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="H6" s="13">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>44332</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>44333</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>44334</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>44335</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>44336</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44337</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>44338</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>44339</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>44340</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>44341</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>44342</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>44343</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>44344</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>44345</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>44346</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>44347</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>44348</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>44349</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>44350</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>44351</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>44352</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>44353</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>44354</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>44355</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>44356</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>44357</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>44358</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>44359</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>44360</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D35" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>44361</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>44362</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>44363</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D38" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>44364</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>44365</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D40" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>44366</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D41" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>44367</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D42" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>44368</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D43" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>44369</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D44" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>44370</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D45" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>44371</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D46" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>44372</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D47" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>44373</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D48" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>44374</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D49" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>44375</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D50" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>44376</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D51" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>44377</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D52" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>44378</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D53" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>44379</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D54" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>44380</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D55" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>44381</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D56" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>44382</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D57" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>44383</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D58" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>44384</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D59" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G59" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>44385</v>
+      </c>
+      <c r="D60" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
